--- a/recidiviz/tests/justice_counts/bulk_upload/bulk_upload_fixtures/law_enforcement/law_enforcement_missing_metrics.xlsx
+++ b/recidiviz/tests/justice_counts/bulk_upload/bulk_upload_fixtures/law_enforcement/law_enforcement_missing_metrics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>year</t>
   </si>
@@ -103,25 +103,31 @@
     <t>race/ethnicity</t>
   </si>
   <si>
-    <t>American Indian / Alaskan Native</t>
+    <t>not_hispanic_american_indian_alaskan_native</t>
   </si>
   <si>
-    <t>Asian</t>
+    <t>Unknown_Ethnicity_Black</t>
   </si>
   <si>
-    <t>Black</t>
+    <t>Hispanic_Black</t>
   </si>
   <si>
-    <t>External / Unknown</t>
+    <t>Unknown_ethnicity_unknown</t>
   </si>
   <si>
-    <t>Hispanic</t>
+    <t>Hispanic_More_than_one_race</t>
   </si>
   <si>
-    <t>Native Hawaiian / Pacific Islander</t>
+    <t>Not_hispanic_Native_Hawaiian_Pacific_Islander</t>
   </si>
   <si>
-    <t>White</t>
+    <t>Hispanic_other</t>
+  </si>
+  <si>
+    <t>Not_Hispanic_White</t>
+  </si>
+  <si>
+    <t>American Indian / Alaskan Native</t>
   </si>
   <si>
     <t>gender</t>
@@ -180,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -248,13 +254,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -264,22 +307,22 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -301,6 +344,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -478,9 +530,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -560,7 +612,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -588,10 +640,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -847,9 +899,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1137,7 +1189,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1165,10 +1217,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1528,8 +1580,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -7215,7 +7267,7 @@
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="2" width="8.85156" style="15" customWidth="1"/>
-    <col min="3" max="3" width="38.0156" style="15" customWidth="1"/>
+    <col min="3" max="3" width="38" style="15" customWidth="1"/>
     <col min="4" max="5" width="8.85156" style="15" customWidth="1"/>
     <col min="6" max="16384" width="8.85156" style="15" customWidth="1"/>
   </cols>
@@ -7242,7 +7294,7 @@
       <c r="B2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="16">
         <v>27</v>
       </c>
       <c r="D2" s="6">
@@ -7257,7 +7309,7 @@
       <c r="B3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D3" s="8">
@@ -7272,7 +7324,7 @@
       <c r="B4" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D4" s="8">
@@ -7287,7 +7339,7 @@
       <c r="B5" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D5" s="8">
@@ -7302,7 +7354,7 @@
       <c r="B6" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D6" s="8">
@@ -7317,7 +7369,7 @@
       <c r="B7" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D7" s="8">
@@ -7332,8 +7384,8 @@
       <c r="B8" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="7">
-        <v>25</v>
+      <c r="C8" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -7347,8 +7399,8 @@
       <c r="B9" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="7">
-        <v>33</v>
+      <c r="C9" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D9" s="8">
         <v>5</v>
@@ -7362,7 +7414,7 @@
       <c r="B10" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D10" s="8">
@@ -7377,7 +7429,7 @@
       <c r="B11" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D11" s="8">
@@ -7392,7 +7444,7 @@
       <c r="B12" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D12" s="8">
@@ -7407,7 +7459,7 @@
       <c r="B13" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D13" s="8">
@@ -7422,7 +7474,7 @@
       <c r="B14" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D14" s="8">
@@ -7437,7 +7489,7 @@
       <c r="B15" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D15" s="8">
@@ -7452,8 +7504,8 @@
       <c r="B16" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C16" t="s" s="7">
-        <v>25</v>
+      <c r="C16" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -7467,8 +7519,8 @@
       <c r="B17" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C17" t="s" s="7">
-        <v>33</v>
+      <c r="C17" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D17" s="8">
         <v>5</v>
@@ -7482,7 +7534,7 @@
       <c r="B18" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D18" s="8">
@@ -7497,7 +7549,7 @@
       <c r="B19" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D19" s="8">
@@ -7512,7 +7564,7 @@
       <c r="B20" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D20" s="8">
@@ -7527,7 +7579,7 @@
       <c r="B21" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D21" s="8">
@@ -7542,7 +7594,7 @@
       <c r="B22" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="C22" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D22" s="8">
@@ -7557,7 +7609,7 @@
       <c r="B23" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D23" s="8">
@@ -7572,8 +7624,8 @@
       <c r="B24" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C24" t="s" s="7">
-        <v>25</v>
+      <c r="C24" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -7587,8 +7639,8 @@
       <c r="B25" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C25" t="s" s="7">
-        <v>33</v>
+      <c r="C25" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D25" s="8">
         <v>5</v>
@@ -7602,7 +7654,7 @@
       <c r="B26" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C26" t="s" s="7">
+      <c r="C26" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D26" s="8">
@@ -7617,7 +7669,7 @@
       <c r="B27" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C27" t="s" s="7">
+      <c r="C27" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D27" s="8">
@@ -7632,7 +7684,7 @@
       <c r="B28" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C28" t="s" s="7">
+      <c r="C28" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D28" s="8">
@@ -7647,7 +7699,7 @@
       <c r="B29" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="C29" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D29" s="8">
@@ -7662,7 +7714,7 @@
       <c r="B30" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C30" t="s" s="7">
+      <c r="C30" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D30" s="8">
@@ -7677,7 +7729,7 @@
       <c r="B31" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C31" t="s" s="7">
+      <c r="C31" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D31" s="8">
@@ -7692,8 +7744,8 @@
       <c r="B32" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C32" t="s" s="7">
-        <v>25</v>
+      <c r="C32" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
@@ -7707,8 +7759,8 @@
       <c r="B33" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C33" t="s" s="7">
-        <v>33</v>
+      <c r="C33" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D33" s="8">
         <v>5</v>
@@ -7722,7 +7774,7 @@
       <c r="B34" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C34" t="s" s="7">
+      <c r="C34" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D34" s="8">
@@ -7737,7 +7789,7 @@
       <c r="B35" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C35" t="s" s="7">
+      <c r="C35" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D35" s="8">
@@ -7752,7 +7804,7 @@
       <c r="B36" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C36" t="s" s="7">
+      <c r="C36" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D36" s="8">
@@ -7767,7 +7819,7 @@
       <c r="B37" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C37" t="s" s="7">
+      <c r="C37" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D37" s="8">
@@ -7782,7 +7834,7 @@
       <c r="B38" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C38" t="s" s="7">
+      <c r="C38" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D38" s="8">
@@ -7797,7 +7849,7 @@
       <c r="B39" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C39" t="s" s="7">
+      <c r="C39" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D39" s="8">
@@ -7812,8 +7864,8 @@
       <c r="B40" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C40" t="s" s="7">
-        <v>25</v>
+      <c r="C40" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D40" s="8">
         <v>0</v>
@@ -7827,8 +7879,8 @@
       <c r="B41" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C41" t="s" s="7">
-        <v>33</v>
+      <c r="C41" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D41" s="8">
         <v>5</v>
@@ -7842,7 +7894,7 @@
       <c r="B42" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="7">
+      <c r="C42" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D42" s="8">
@@ -7857,7 +7909,7 @@
       <c r="B43" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="7">
+      <c r="C43" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D43" s="8">
@@ -7872,7 +7924,7 @@
       <c r="B44" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="7">
+      <c r="C44" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D44" s="8">
@@ -7887,7 +7939,7 @@
       <c r="B45" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="7">
+      <c r="C45" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D45" s="8">
@@ -7902,7 +7954,7 @@
       <c r="B46" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="7">
+      <c r="C46" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D46" s="8">
@@ -7917,7 +7969,7 @@
       <c r="B47" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="7">
+      <c r="C47" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D47" s="8">
@@ -7932,8 +7984,8 @@
       <c r="B48" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="7">
-        <v>25</v>
+      <c r="C48" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D48" s="8">
         <v>0</v>
@@ -7947,8 +7999,8 @@
       <c r="B49" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="7">
-        <v>33</v>
+      <c r="C49" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D49" s="8">
         <v>5</v>
@@ -7962,8 +8014,8 @@
       <c r="B50" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C50" t="s" s="7">
-        <v>27</v>
+      <c r="C50" t="s" s="17">
+        <v>35</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
@@ -7977,7 +8029,7 @@
       <c r="B51" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C51" t="s" s="7">
+      <c r="C51" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D51" s="8">
@@ -7992,7 +8044,7 @@
       <c r="B52" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C52" t="s" s="7">
+      <c r="C52" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D52" s="8">
@@ -8007,7 +8059,7 @@
       <c r="B53" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C53" t="s" s="7">
+      <c r="C53" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D53" s="8">
@@ -8022,7 +8074,7 @@
       <c r="B54" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C54" t="s" s="7">
+      <c r="C54" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D54" s="8">
@@ -8037,7 +8089,7 @@
       <c r="B55" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C55" t="s" s="7">
+      <c r="C55" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D55" s="8">
@@ -8052,8 +8104,8 @@
       <c r="B56" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C56" t="s" s="7">
-        <v>25</v>
+      <c r="C56" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D56" s="8">
         <v>0</v>
@@ -8067,8 +8119,8 @@
       <c r="B57" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C57" t="s" s="7">
-        <v>33</v>
+      <c r="C57" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D57" s="8">
         <v>5</v>
@@ -8082,7 +8134,7 @@
       <c r="B58" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C58" t="s" s="7">
+      <c r="C58" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D58" s="8">
@@ -8097,7 +8149,7 @@
       <c r="B59" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C59" t="s" s="7">
+      <c r="C59" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D59" s="8">
@@ -8112,7 +8164,7 @@
       <c r="B60" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C60" t="s" s="7">
+      <c r="C60" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D60" s="8">
@@ -8127,7 +8179,7 @@
       <c r="B61" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C61" t="s" s="7">
+      <c r="C61" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D61" s="8">
@@ -8142,7 +8194,7 @@
       <c r="B62" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C62" t="s" s="7">
+      <c r="C62" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D62" s="8">
@@ -8157,7 +8209,7 @@
       <c r="B63" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C63" t="s" s="7">
+      <c r="C63" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D63" s="8">
@@ -8172,8 +8224,8 @@
       <c r="B64" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C64" t="s" s="7">
-        <v>25</v>
+      <c r="C64" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D64" s="8">
         <v>0</v>
@@ -8187,8 +8239,8 @@
       <c r="B65" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C65" t="s" s="7">
-        <v>33</v>
+      <c r="C65" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D65" s="8">
         <v>5</v>
@@ -8202,7 +8254,7 @@
       <c r="B66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C66" t="s" s="7">
+      <c r="C66" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D66" s="8">
@@ -8217,7 +8269,7 @@
       <c r="B67" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C67" t="s" s="7">
+      <c r="C67" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D67" s="8">
@@ -8232,7 +8284,7 @@
       <c r="B68" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C68" t="s" s="7">
+      <c r="C68" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D68" s="8">
@@ -8247,7 +8299,7 @@
       <c r="B69" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C69" t="s" s="7">
+      <c r="C69" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D69" s="8">
@@ -8262,7 +8314,7 @@
       <c r="B70" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C70" t="s" s="7">
+      <c r="C70" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D70" s="8">
@@ -8277,7 +8329,7 @@
       <c r="B71" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C71" t="s" s="7">
+      <c r="C71" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D71" s="8">
@@ -8292,8 +8344,8 @@
       <c r="B72" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C72" t="s" s="7">
-        <v>25</v>
+      <c r="C72" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D72" s="8">
         <v>0</v>
@@ -8307,8 +8359,8 @@
       <c r="B73" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C73" t="s" s="7">
-        <v>33</v>
+      <c r="C73" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D73" s="8">
         <v>5</v>
@@ -8322,7 +8374,7 @@
       <c r="B74" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C74" t="s" s="7">
+      <c r="C74" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D74" s="8">
@@ -8337,7 +8389,7 @@
       <c r="B75" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C75" t="s" s="7">
+      <c r="C75" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D75" s="8">
@@ -8352,7 +8404,7 @@
       <c r="B76" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C76" t="s" s="7">
+      <c r="C76" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D76" s="8">
@@ -8367,7 +8419,7 @@
       <c r="B77" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C77" t="s" s="7">
+      <c r="C77" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D77" s="8">
@@ -8382,7 +8434,7 @@
       <c r="B78" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C78" t="s" s="7">
+      <c r="C78" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D78" s="8">
@@ -8397,7 +8449,7 @@
       <c r="B79" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C79" t="s" s="7">
+      <c r="C79" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D79" s="8">
@@ -8412,8 +8464,8 @@
       <c r="B80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C80" t="s" s="7">
-        <v>25</v>
+      <c r="C80" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -8427,8 +8479,8 @@
       <c r="B81" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C81" t="s" s="7">
-        <v>33</v>
+      <c r="C81" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D81" s="8">
         <v>5</v>
@@ -8442,7 +8494,7 @@
       <c r="B82" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C82" t="s" s="7">
+      <c r="C82" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D82" s="8">
@@ -8457,7 +8509,7 @@
       <c r="B83" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C83" t="s" s="7">
+      <c r="C83" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D83" s="8">
@@ -8472,7 +8524,7 @@
       <c r="B84" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C84" t="s" s="7">
+      <c r="C84" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D84" s="8">
@@ -8487,7 +8539,7 @@
       <c r="B85" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C85" t="s" s="7">
+      <c r="C85" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D85" s="8">
@@ -8502,7 +8554,7 @@
       <c r="B86" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C86" t="s" s="7">
+      <c r="C86" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D86" s="8">
@@ -8517,7 +8569,7 @@
       <c r="B87" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C87" t="s" s="7">
+      <c r="C87" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D87" s="8">
@@ -8532,8 +8584,8 @@
       <c r="B88" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C88" t="s" s="7">
-        <v>25</v>
+      <c r="C88" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D88" s="8">
         <v>0</v>
@@ -8547,8 +8599,8 @@
       <c r="B89" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C89" t="s" s="7">
-        <v>33</v>
+      <c r="C89" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D89" s="8">
         <v>5</v>
@@ -8562,7 +8614,7 @@
       <c r="B90" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C90" t="s" s="7">
+      <c r="C90" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D90" s="8">
@@ -8577,7 +8629,7 @@
       <c r="B91" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C91" t="s" s="7">
+      <c r="C91" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D91" s="8">
@@ -8592,7 +8644,7 @@
       <c r="B92" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C92" t="s" s="7">
+      <c r="C92" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D92" s="8">
@@ -8607,7 +8659,7 @@
       <c r="B93" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C93" t="s" s="7">
+      <c r="C93" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D93" s="8">
@@ -8622,7 +8674,7 @@
       <c r="B94" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C94" t="s" s="7">
+      <c r="C94" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D94" s="8">
@@ -8637,7 +8689,7 @@
       <c r="B95" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C95" t="s" s="7">
+      <c r="C95" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D95" s="8">
@@ -8652,8 +8704,8 @@
       <c r="B96" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C96" t="s" s="7">
-        <v>25</v>
+      <c r="C96" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D96" s="8">
         <v>0</v>
@@ -8667,8 +8719,8 @@
       <c r="B97" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C97" t="s" s="7">
-        <v>33</v>
+      <c r="C97" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D97" s="8">
         <v>5</v>
@@ -8682,7 +8734,7 @@
       <c r="B98" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C98" t="s" s="7">
+      <c r="C98" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D98" s="8">
@@ -8697,7 +8749,7 @@
       <c r="B99" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C99" t="s" s="7">
+      <c r="C99" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D99" s="8">
@@ -8712,7 +8764,7 @@
       <c r="B100" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C100" t="s" s="7">
+      <c r="C100" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D100" s="8">
@@ -8727,7 +8779,7 @@
       <c r="B101" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C101" t="s" s="7">
+      <c r="C101" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D101" s="8">
@@ -8742,7 +8794,7 @@
       <c r="B102" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C102" t="s" s="7">
+      <c r="C102" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D102" s="8">
@@ -8757,7 +8809,7 @@
       <c r="B103" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C103" t="s" s="7">
+      <c r="C103" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D103" s="8">
@@ -8772,8 +8824,8 @@
       <c r="B104" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C104" t="s" s="7">
-        <v>25</v>
+      <c r="C104" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D104" s="8">
         <v>0</v>
@@ -8787,8 +8839,8 @@
       <c r="B105" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C105" t="s" s="7">
-        <v>33</v>
+      <c r="C105" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D105" s="8">
         <v>0</v>
@@ -8802,7 +8854,7 @@
       <c r="B106" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C106" t="s" s="7">
+      <c r="C106" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D106" s="8">
@@ -8817,7 +8869,7 @@
       <c r="B107" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C107" t="s" s="7">
+      <c r="C107" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D107" s="8">
@@ -8832,7 +8884,7 @@
       <c r="B108" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C108" t="s" s="7">
+      <c r="C108" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D108" s="8">
@@ -8847,7 +8899,7 @@
       <c r="B109" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C109" t="s" s="7">
+      <c r="C109" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D109" s="8">
@@ -8862,7 +8914,7 @@
       <c r="B110" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C110" t="s" s="7">
+      <c r="C110" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D110" s="8">
@@ -8877,7 +8929,7 @@
       <c r="B111" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C111" t="s" s="7">
+      <c r="C111" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D111" s="8">
@@ -8892,8 +8944,8 @@
       <c r="B112" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C112" t="s" s="7">
-        <v>25</v>
+      <c r="C112" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D112" s="8">
         <v>0</v>
@@ -8907,8 +8959,8 @@
       <c r="B113" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C113" t="s" s="7">
-        <v>33</v>
+      <c r="C113" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D113" s="8">
         <v>0</v>
@@ -8922,7 +8974,7 @@
       <c r="B114" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C114" t="s" s="7">
+      <c r="C114" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D114" s="8">
@@ -8937,7 +8989,7 @@
       <c r="B115" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C115" t="s" s="7">
+      <c r="C115" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D115" s="8">
@@ -8952,7 +9004,7 @@
       <c r="B116" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C116" t="s" s="7">
+      <c r="C116" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D116" s="8">
@@ -8967,7 +9019,7 @@
       <c r="B117" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C117" t="s" s="7">
+      <c r="C117" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D117" s="8">
@@ -8982,7 +9034,7 @@
       <c r="B118" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C118" t="s" s="7">
+      <c r="C118" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D118" s="8">
@@ -8997,7 +9049,7 @@
       <c r="B119" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C119" t="s" s="7">
+      <c r="C119" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D119" s="8">
@@ -9012,8 +9064,8 @@
       <c r="B120" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C120" t="s" s="7">
-        <v>25</v>
+      <c r="C120" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D120" s="8">
         <v>0</v>
@@ -9027,8 +9079,8 @@
       <c r="B121" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C121" t="s" s="7">
-        <v>33</v>
+      <c r="C121" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D121" s="8">
         <v>0</v>
@@ -9042,7 +9094,7 @@
       <c r="B122" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C122" t="s" s="7">
+      <c r="C122" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D122" s="8">
@@ -9057,7 +9109,7 @@
       <c r="B123" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C123" t="s" s="7">
+      <c r="C123" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D123" s="8">
@@ -9072,7 +9124,7 @@
       <c r="B124" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C124" t="s" s="7">
+      <c r="C124" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D124" s="8">
@@ -9087,7 +9139,7 @@
       <c r="B125" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C125" t="s" s="7">
+      <c r="C125" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D125" s="8">
@@ -9102,7 +9154,7 @@
       <c r="B126" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C126" t="s" s="7">
+      <c r="C126" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D126" s="8">
@@ -9117,7 +9169,7 @@
       <c r="B127" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C127" t="s" s="7">
+      <c r="C127" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D127" s="8">
@@ -9132,8 +9184,8 @@
       <c r="B128" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C128" t="s" s="7">
-        <v>25</v>
+      <c r="C128" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D128" s="8">
         <v>0</v>
@@ -9147,8 +9199,8 @@
       <c r="B129" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C129" t="s" s="7">
-        <v>33</v>
+      <c r="C129" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D129" s="8">
         <v>0</v>
@@ -9162,7 +9214,7 @@
       <c r="B130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C130" t="s" s="7">
+      <c r="C130" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D130" s="8">
@@ -9177,7 +9229,7 @@
       <c r="B131" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C131" t="s" s="7">
+      <c r="C131" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D131" s="8">
@@ -9192,7 +9244,7 @@
       <c r="B132" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C132" t="s" s="7">
+      <c r="C132" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D132" s="8">
@@ -9207,7 +9259,7 @@
       <c r="B133" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C133" t="s" s="7">
+      <c r="C133" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D133" s="8">
@@ -9222,7 +9274,7 @@
       <c r="B134" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C134" t="s" s="7">
+      <c r="C134" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D134" s="8">
@@ -9237,7 +9289,7 @@
       <c r="B135" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C135" t="s" s="7">
+      <c r="C135" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D135" s="8">
@@ -9252,8 +9304,8 @@
       <c r="B136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C136" t="s" s="7">
-        <v>25</v>
+      <c r="C136" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D136" s="8">
         <v>0</v>
@@ -9267,8 +9319,8 @@
       <c r="B137" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C137" t="s" s="7">
-        <v>33</v>
+      <c r="C137" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D137" s="8">
         <v>0</v>
@@ -9282,7 +9334,7 @@
       <c r="B138" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="7">
+      <c r="C138" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D138" s="8">
@@ -9297,7 +9349,7 @@
       <c r="B139" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="7">
+      <c r="C139" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D139" s="8">
@@ -9312,7 +9364,7 @@
       <c r="B140" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="7">
+      <c r="C140" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D140" s="8">
@@ -9327,7 +9379,7 @@
       <c r="B141" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="7">
+      <c r="C141" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D141" s="8">
@@ -9342,7 +9394,7 @@
       <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="7">
+      <c r="C142" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D142" s="8">
@@ -9357,7 +9409,7 @@
       <c r="B143" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="7">
+      <c r="C143" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D143" s="8">
@@ -9372,8 +9424,8 @@
       <c r="B144" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="7">
-        <v>25</v>
+      <c r="C144" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D144" s="8">
         <v>0</v>
@@ -9387,8 +9439,8 @@
       <c r="B145" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="7">
-        <v>33</v>
+      <c r="C145" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D145" s="8">
         <v>0</v>
@@ -9402,7 +9454,7 @@
       <c r="B146" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C146" t="s" s="7">
+      <c r="C146" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D146" s="8">
@@ -9417,7 +9469,7 @@
       <c r="B147" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C147" t="s" s="7">
+      <c r="C147" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D147" s="8">
@@ -9432,7 +9484,7 @@
       <c r="B148" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C148" t="s" s="7">
+      <c r="C148" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D148" s="8">
@@ -9447,7 +9499,7 @@
       <c r="B149" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C149" t="s" s="7">
+      <c r="C149" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D149" s="8">
@@ -9462,7 +9514,7 @@
       <c r="B150" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C150" t="s" s="7">
+      <c r="C150" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D150" s="8">
@@ -9477,7 +9529,7 @@
       <c r="B151" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C151" t="s" s="7">
+      <c r="C151" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D151" s="8">
@@ -9492,8 +9544,8 @@
       <c r="B152" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C152" t="s" s="7">
-        <v>25</v>
+      <c r="C152" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D152" s="8">
         <v>0</v>
@@ -9507,8 +9559,8 @@
       <c r="B153" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C153" t="s" s="7">
-        <v>33</v>
+      <c r="C153" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D153" s="8">
         <v>0</v>
@@ -9522,7 +9574,7 @@
       <c r="B154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C154" t="s" s="7">
+      <c r="C154" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D154" s="8">
@@ -9537,7 +9589,7 @@
       <c r="B155" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C155" t="s" s="7">
+      <c r="C155" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D155" s="8">
@@ -9552,7 +9604,7 @@
       <c r="B156" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C156" t="s" s="7">
+      <c r="C156" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D156" s="8">
@@ -9567,7 +9619,7 @@
       <c r="B157" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C157" t="s" s="7">
+      <c r="C157" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D157" s="8">
@@ -9582,7 +9634,7 @@
       <c r="B158" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C158" t="s" s="7">
+      <c r="C158" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D158" s="8">
@@ -9597,7 +9649,7 @@
       <c r="B159" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C159" t="s" s="7">
+      <c r="C159" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D159" s="8">
@@ -9612,8 +9664,8 @@
       <c r="B160" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C160" t="s" s="7">
-        <v>25</v>
+      <c r="C160" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D160" s="8">
         <v>0</v>
@@ -9627,8 +9679,8 @@
       <c r="B161" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C161" t="s" s="7">
-        <v>33</v>
+      <c r="C161" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D161" s="8">
         <v>0</v>
@@ -9642,7 +9694,7 @@
       <c r="B162" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C162" t="s" s="7">
+      <c r="C162" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D162" s="8">
@@ -9657,7 +9709,7 @@
       <c r="B163" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C163" t="s" s="7">
+      <c r="C163" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D163" s="8">
@@ -9672,7 +9724,7 @@
       <c r="B164" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C164" t="s" s="7">
+      <c r="C164" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D164" s="8">
@@ -9687,7 +9739,7 @@
       <c r="B165" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C165" t="s" s="7">
+      <c r="C165" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D165" s="8">
@@ -9702,7 +9754,7 @@
       <c r="B166" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C166" t="s" s="7">
+      <c r="C166" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D166" s="8">
@@ -9717,7 +9769,7 @@
       <c r="B167" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C167" t="s" s="7">
+      <c r="C167" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D167" s="8">
@@ -9732,8 +9784,8 @@
       <c r="B168" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C168" t="s" s="7">
-        <v>25</v>
+      <c r="C168" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D168" s="8">
         <v>0</v>
@@ -9747,8 +9799,8 @@
       <c r="B169" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C169" t="s" s="7">
-        <v>33</v>
+      <c r="C169" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D169" s="8">
         <v>0</v>
@@ -9762,7 +9814,7 @@
       <c r="B170" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C170" t="s" s="7">
+      <c r="C170" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D170" s="8">
@@ -9777,7 +9829,7 @@
       <c r="B171" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C171" t="s" s="7">
+      <c r="C171" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D171" s="8">
@@ -9792,7 +9844,7 @@
       <c r="B172" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C172" t="s" s="7">
+      <c r="C172" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D172" s="8">
@@ -9807,7 +9859,7 @@
       <c r="B173" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C173" t="s" s="7">
+      <c r="C173" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D173" s="8">
@@ -9822,7 +9874,7 @@
       <c r="B174" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C174" t="s" s="7">
+      <c r="C174" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D174" s="8">
@@ -9837,7 +9889,7 @@
       <c r="B175" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C175" t="s" s="7">
+      <c r="C175" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D175" s="8">
@@ -9852,8 +9904,8 @@
       <c r="B176" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C176" t="s" s="7">
-        <v>25</v>
+      <c r="C176" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D176" s="8">
         <v>0</v>
@@ -9867,8 +9919,8 @@
       <c r="B177" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C177" t="s" s="7">
-        <v>33</v>
+      <c r="C177" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D177" s="8">
         <v>0</v>
@@ -9882,7 +9934,7 @@
       <c r="B178" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C178" t="s" s="7">
+      <c r="C178" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D178" s="8">
@@ -9897,7 +9949,7 @@
       <c r="B179" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C179" t="s" s="7">
+      <c r="C179" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D179" s="8">
@@ -9912,7 +9964,7 @@
       <c r="B180" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C180" t="s" s="7">
+      <c r="C180" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D180" s="8">
@@ -9927,7 +9979,7 @@
       <c r="B181" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C181" t="s" s="7">
+      <c r="C181" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D181" s="8">
@@ -9942,7 +9994,7 @@
       <c r="B182" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C182" t="s" s="7">
+      <c r="C182" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D182" s="8">
@@ -9957,7 +10009,7 @@
       <c r="B183" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C183" t="s" s="7">
+      <c r="C183" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D183" s="8">
@@ -9972,8 +10024,8 @@
       <c r="B184" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C184" t="s" s="7">
-        <v>25</v>
+      <c r="C184" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D184" s="8">
         <v>0</v>
@@ -9987,8 +10039,8 @@
       <c r="B185" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C185" t="s" s="7">
-        <v>33</v>
+      <c r="C185" t="s" s="17">
+        <v>34</v>
       </c>
       <c r="D185" s="8">
         <v>0</v>
@@ -10002,7 +10054,7 @@
       <c r="B186" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C186" t="s" s="7">
+      <c r="C186" t="s" s="17">
         <v>27</v>
       </c>
       <c r="D186" s="8">
@@ -10017,7 +10069,7 @@
       <c r="B187" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C187" t="s" s="7">
+      <c r="C187" t="s" s="17">
         <v>28</v>
       </c>
       <c r="D187" s="8">
@@ -10032,7 +10084,7 @@
       <c r="B188" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C188" t="s" s="7">
+      <c r="C188" t="s" s="17">
         <v>29</v>
       </c>
       <c r="D188" s="8">
@@ -10047,7 +10099,7 @@
       <c r="B189" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C189" t="s" s="7">
+      <c r="C189" t="s" s="17">
         <v>30</v>
       </c>
       <c r="D189" s="8">
@@ -10062,7 +10114,7 @@
       <c r="B190" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C190" t="s" s="7">
+      <c r="C190" t="s" s="17">
         <v>31</v>
       </c>
       <c r="D190" s="8">
@@ -10077,7 +10129,7 @@
       <c r="B191" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C191" t="s" s="7">
+      <c r="C191" t="s" s="17">
         <v>32</v>
       </c>
       <c r="D191" s="8">
@@ -10092,8 +10144,8 @@
       <c r="B192" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C192" t="s" s="7">
-        <v>25</v>
+      <c r="C192" t="s" s="17">
+        <v>33</v>
       </c>
       <c r="D192" s="8">
         <v>0</v>
@@ -10107,8 +10159,8 @@
       <c r="B193" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C193" t="s" s="7">
-        <v>33</v>
+      <c r="C193" t="s" s="18">
+        <v>34</v>
       </c>
       <c r="D193" s="8">
         <v>0</v>
@@ -10132,8 +10184,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="16" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -10144,7 +10196,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="2">
         <v>1</v>
@@ -10159,7 +10211,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6">
         <v>20</v>
@@ -10174,7 +10226,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="8">
         <v>12</v>
@@ -10204,7 +10256,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -10234,7 +10286,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8">
         <v>20</v>
@@ -10249,7 +10301,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8">
         <v>12</v>
@@ -10279,7 +10331,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -10309,7 +10361,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8">
         <v>20</v>
@@ -10324,7 +10376,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8">
         <v>12</v>
@@ -10354,7 +10406,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -10384,7 +10436,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="8">
         <v>20</v>
@@ -10399,7 +10451,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="8">
         <v>12</v>
@@ -10429,7 +10481,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -10459,7 +10511,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" s="8">
         <v>20</v>
@@ -10474,7 +10526,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D23" s="8">
         <v>12</v>
@@ -10504,7 +10556,7 @@
         <v>9</v>
       </c>
       <c r="C25" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -10534,7 +10586,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D27" s="8">
         <v>20</v>
@@ -10549,7 +10601,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D28" s="8">
         <v>12</v>
@@ -10579,7 +10631,7 @@
         <v>10</v>
       </c>
       <c r="C30" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
@@ -10609,7 +10661,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" s="8">
         <v>20</v>
@@ -10624,7 +10676,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33" s="8">
         <v>12</v>
@@ -10654,7 +10706,7 @@
         <v>11</v>
       </c>
       <c r="C35" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
@@ -10684,7 +10736,7 @@
         <v>12</v>
       </c>
       <c r="C37" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37" s="8">
         <v>20</v>
@@ -10699,7 +10751,7 @@
         <v>12</v>
       </c>
       <c r="C38" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38" s="8">
         <v>12</v>
@@ -10729,7 +10781,7 @@
         <v>12</v>
       </c>
       <c r="C40" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D40" s="8">
         <v>0</v>
@@ -10759,7 +10811,7 @@
         <v>13</v>
       </c>
       <c r="C42" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D42" s="8">
         <v>20</v>
@@ -10774,7 +10826,7 @@
         <v>13</v>
       </c>
       <c r="C43" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D43" s="8">
         <v>12</v>
@@ -10804,7 +10856,7 @@
         <v>13</v>
       </c>
       <c r="C45" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
@@ -10834,7 +10886,7 @@
         <v>14</v>
       </c>
       <c r="C47" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D47" s="8">
         <v>20</v>
@@ -10849,7 +10901,7 @@
         <v>14</v>
       </c>
       <c r="C48" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D48" s="8">
         <v>12</v>
@@ -10879,7 +10931,7 @@
         <v>14</v>
       </c>
       <c r="C50" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
@@ -10909,7 +10961,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D52" s="8">
         <v>20</v>
@@ -10924,7 +10976,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D53" s="8">
         <v>12</v>
@@ -10954,7 +11006,7 @@
         <v>15</v>
       </c>
       <c r="C55" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D55" s="8">
         <v>0</v>
@@ -10984,7 +11036,7 @@
         <v>16</v>
       </c>
       <c r="C57" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D57" s="8">
         <v>20</v>
@@ -10999,7 +11051,7 @@
         <v>16</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D58" s="8">
         <v>12</v>
@@ -11029,7 +11081,7 @@
         <v>16</v>
       </c>
       <c r="C60" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D60" s="8">
         <v>0</v>
@@ -11059,7 +11111,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D62" s="8">
         <v>12</v>
@@ -11074,7 +11126,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D63" s="8">
         <v>10</v>
@@ -11104,7 +11156,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D65" s="8">
         <v>0</v>
@@ -11134,7 +11186,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D67" s="8">
         <v>12</v>
@@ -11149,7 +11201,7 @@
         <v>6</v>
       </c>
       <c r="C68" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D68" s="8">
         <v>10</v>
@@ -11179,7 +11231,7 @@
         <v>6</v>
       </c>
       <c r="C70" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D70" s="8">
         <v>0</v>
@@ -11209,7 +11261,7 @@
         <v>7</v>
       </c>
       <c r="C72" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D72" s="8">
         <v>12</v>
@@ -11224,7 +11276,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D73" s="8">
         <v>10</v>
@@ -11254,7 +11306,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D75" s="8">
         <v>0</v>
@@ -11284,7 +11336,7 @@
         <v>8</v>
       </c>
       <c r="C77" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D77" s="8">
         <v>12</v>
@@ -11299,7 +11351,7 @@
         <v>8</v>
       </c>
       <c r="C78" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D78" s="8">
         <v>10</v>
@@ -11329,7 +11381,7 @@
         <v>8</v>
       </c>
       <c r="C80" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -11359,7 +11411,7 @@
         <v>9</v>
       </c>
       <c r="C82" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D82" s="8">
         <v>12</v>
@@ -11374,7 +11426,7 @@
         <v>9</v>
       </c>
       <c r="C83" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D83" s="8">
         <v>10</v>
@@ -11404,7 +11456,7 @@
         <v>9</v>
       </c>
       <c r="C85" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D85" s="8">
         <v>0</v>
@@ -11434,7 +11486,7 @@
         <v>10</v>
       </c>
       <c r="C87" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D87" s="8">
         <v>12</v>
@@ -11449,7 +11501,7 @@
         <v>10</v>
       </c>
       <c r="C88" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D88" s="8">
         <v>10</v>
@@ -11479,7 +11531,7 @@
         <v>10</v>
       </c>
       <c r="C90" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D90" s="8">
         <v>0</v>
@@ -11509,7 +11561,7 @@
         <v>11</v>
       </c>
       <c r="C92" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D92" s="8">
         <v>12</v>
@@ -11524,7 +11576,7 @@
         <v>11</v>
       </c>
       <c r="C93" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D93" s="8">
         <v>10</v>
@@ -11554,7 +11606,7 @@
         <v>11</v>
       </c>
       <c r="C95" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D95" s="8">
         <v>0</v>
@@ -11584,7 +11636,7 @@
         <v>12</v>
       </c>
       <c r="C97" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D97" s="8">
         <v>12</v>
@@ -11599,7 +11651,7 @@
         <v>12</v>
       </c>
       <c r="C98" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D98" s="8">
         <v>10</v>
@@ -11629,7 +11681,7 @@
         <v>12</v>
       </c>
       <c r="C100" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D100" s="8">
         <v>0</v>
@@ -11659,7 +11711,7 @@
         <v>13</v>
       </c>
       <c r="C102" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D102" s="8">
         <v>12</v>
@@ -11674,7 +11726,7 @@
         <v>13</v>
       </c>
       <c r="C103" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D103" s="8">
         <v>10</v>
@@ -11704,7 +11756,7 @@
         <v>13</v>
       </c>
       <c r="C105" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D105" s="8">
         <v>0</v>
@@ -11734,7 +11786,7 @@
         <v>14</v>
       </c>
       <c r="C107" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D107" s="8">
         <v>12</v>
@@ -11749,7 +11801,7 @@
         <v>14</v>
       </c>
       <c r="C108" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D108" s="8">
         <v>10</v>
@@ -11779,7 +11831,7 @@
         <v>14</v>
       </c>
       <c r="C110" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D110" s="8">
         <v>0</v>
@@ -11809,7 +11861,7 @@
         <v>15</v>
       </c>
       <c r="C112" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D112" s="8">
         <v>12</v>
@@ -11824,7 +11876,7 @@
         <v>15</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D113" s="8">
         <v>10</v>
@@ -11854,7 +11906,7 @@
         <v>15</v>
       </c>
       <c r="C115" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D115" s="8">
         <v>0</v>
@@ -11884,7 +11936,7 @@
         <v>16</v>
       </c>
       <c r="C117" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D117" s="8">
         <v>12</v>
@@ -11899,7 +11951,7 @@
         <v>16</v>
       </c>
       <c r="C118" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D118" s="8">
         <v>10</v>
@@ -11929,7 +11981,7 @@
         <v>16</v>
       </c>
       <c r="C120" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D120" s="8">
         <v>0</v>
